--- a/biology/Zoologie/Gobiodon_citrinus/Gobiodon_citrinus.xlsx
+++ b/biology/Zoologie/Gobiodon_citrinus/Gobiodon_citrinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gobiodon citrinus, communément appelé le Gobie corail citron, Gobie corail jaune ou Gobie jaune, est une espèce de gobies de la famille des Gobiidae, nommé ainsi pour sa couleur jaune vif.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Gobiodon citrinus a été initialement décrite en 1838 par le naturaliste et un explorateur prussien Eduard Rüppell (1794-1884) sous le protonyme de Gobius citrinus[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Gobiodon citrinus a été initialement décrite en 1838 par le naturaliste et un explorateur prussien Eduard Rüppell (1794-1884) sous le protonyme de Gobius citrinus.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gobiodon citrinus est une espèce marine de récifs. Elle se rencontre dans le bassin Indo-Pacifique ouest, depuis la mer Rouge jusqu'à la baie de Maputo (Mozambique) et, vers l'est, jusqu'aux îles Samoa, vers le nord, jusqu'au sud du Japon et, vers le sud, jusqu'à la Grande Barrière de corail[2]. Elle est présente entre 2 et20 m de profondeur[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gobiodon citrinus est une espèce marine de récifs. Elle se rencontre dans le bassin Indo-Pacifique ouest, depuis la mer Rouge jusqu'à la baie de Maputo (Mozambique) et, vers l'est, jusqu'aux îles Samoa, vers le nord, jusqu'au sud du Japon et, vers le sud, jusqu'à la Grande Barrière de corail. Elle est présente entre 2 et20 m de profondeur.
 Gobiodon citrinus vit essentiellement à l'abri dans les coraux durs. C'est une espèce territoriale qui ne forme pas de colonies mais peut toutefois vivre en couple.
 </t>
         </is>
@@ -574,10 +590,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gobiodon citrinus mesure jusqu'à 66 mm de longueur totale[2]. Son corps, trapu, est de couleur jaune avec de fines lignes bleues au niveau de ma tête. Comme ses congénères il produit une grosse quantité d'un mucus épais et collant qui a un fort goût amer et qui lui sert pour dissuader d'éventuels prédateurs.
-Gobiodon citrinus se nourrit de petits invertébrés et de zooplancton[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gobiodon citrinus mesure jusqu'à 66 mm de longueur totale. Son corps, trapu, est de couleur jaune avec de fines lignes bleues au niveau de ma tête. Comme ses congénères il produit une grosse quantité d'un mucus épais et collant qui a un fort goût amer et qui lui sert pour dissuader d'éventuels prédateurs.
+Gobiodon citrinus se nourrit de petits invertébrés et de zooplancton.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Liste des non-classés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (14 janvier 2022)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (14 janvier 2022) :
 non-classé Gobiodon citrinus 'Pacific Ocean variant'
 non-classé Gobiodon citrinus 'Red Sea variant'</t>
         </is>
@@ -638,7 +658,9 @@
           <t>Maintenance en aquarium</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce poisson est exclusivement réservé à un aquarium récifal. Gobiodon citrinus apprécie la nourriture congelée (artémias, vers de vase…), mais il accepte également des morceaux carnés, comme de la chaire de crevette ou de moule.
 </t>
